--- a/biology/Botanique/Gilbertiodendron/Gilbertiodendron.xlsx
+++ b/biology/Botanique/Gilbertiodendron/Gilbertiodendron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilbertiodendron est un genre de plantes appartenant à la famille des Fabaceae.
 Son nom rend hommage à l'ingénieur et botaniste belge Georges Gilbert.
@@ -512,11 +524,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017) :
 Gilbertiodendron jongkindii Estrella &amp; Devesa
-Selon Catalogue of Life                                   (24 juillet 2017)[3] :
+Selon Catalogue of Life                                   (24 juillet 2017) :
 Gilbertiodendron aylmeri (Hutch. &amp; Dalziel)J.Leonard
 Gilbertiodendron barbulatum (Pellegr.)J.Leonard
 Gilbertiodendron bilineatum (Hutch. &amp; Dalziel)J.Leonard
@@ -544,12 +558,12 @@
 Gilbertiodendron straussianum (Harms)J.Leonard
 Gilbertiodendron unijugum (Pellegr.)J.Leonard
 Gilbertiodendron zenkeri (Harms)J.Leonard
-Selon GRIN            (24 juillet 2017)[4] :
+Selon GRIN            (24 juillet 2017) :
 Gilbertiodendron bilineatum (Hutch. &amp; Dalziel) J. Léonard
 Gilbertiodendron dewevrei (De Wild.) J. Léonard
 Gilbertiodendron limba (Scott-Elliot) J. Léonard
 Gilbertiodendron mayombense (Pellegr.) J. Léonard
-Selon NCBI  (24 juillet 2017)[5] :
+Selon NCBI  (24 juillet 2017) :
 Gilbertiodendron aylmeri
 Gilbertiodendron bilineatum
 Gilbertiodendron brachystegioides
@@ -578,7 +592,7 @@
 Gilbertiodendron sulfureum
 Gilbertiodendron tonkolili
 Gilbertiodendron unijugum
-Selon The Plant List            (24 juillet 2017)[6] :
+Selon The Plant List            (24 juillet 2017) :
 Gilbertiodendron aylmeri (Hutch. &amp; Dalziel) J.Leonard
 Gilbertiodendron barbulatum (Pellegr.) J.Leonard
 Gilbertiodendron bilineatum (Hutch. &amp; Dalziel) J.Leonard
@@ -606,7 +620,7 @@
 Gilbertiodendron straussianum (Harms) J.Leonard
 Gilbertiodendron unijugum (Pellegr.) J.Leonard
 Gilbertiodendron zenkeri (Harms) J.Leonard
-Selon Tropicos                                           (24 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Gilbertiodendron aylmeri (Hutch. &amp; Dalziel) J. Léonard
 Gilbertiodendron barbulatum (Pellegr.) J. Léonard
 Gilbertiodendron bilineatum (Hutch. &amp; Dalziel) J. Léonard
